--- a/DATA_goal/Junction_Flooding_144.xlsx
+++ b/DATA_goal/Junction_Flooding_144.xlsx
@@ -446,12 +446,12 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
@@ -655,103 +655,103 @@
         <v>41576.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>19.7</v>
+        <v>1.97</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>13.28</v>
+        <v>1.33</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.06</v>
+        <v>0.41</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>41.79</v>
+        <v>4.18</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>33.75</v>
+        <v>3.38</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.5</v>
+        <v>1.55</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>49.49</v>
+        <v>4.95</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>23.85</v>
+        <v>2.39</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.98</v>
+        <v>1</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>15.14</v>
+        <v>1.51</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.47</v>
+        <v>1.65</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>17.17</v>
+        <v>1.72</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.95</v>
+        <v>0.49</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>15.41</v>
+        <v>1.54</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>21.54</v>
+        <v>2.15</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>13.13</v>
+        <v>1.31</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.48</v>
+        <v>0.35</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.25</v>
+        <v>0.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>227.27</v>
+        <v>22.73</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>42.87</v>
+        <v>4.29</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>14.23</v>
+        <v>1.42</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>28.32</v>
+        <v>2.83</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>14.5</v>
+        <v>1.45</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.98</v>
+        <v>0.3</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>24.96</v>
+        <v>2.5</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.57</v>
+        <v>1.26</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.39</v>
+        <v>1.14</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.35</v>
+        <v>1.33</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.95</v>
+        <v>1.69</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>43.88</v>
+        <v>4.39</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.87</v>
+        <v>0.79</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>17.79</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41576.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>10.19</v>
+        <v>1.02</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.94</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.6</v>
+        <v>0.16</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>21.87</v>
+        <v>2.19</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>17.56</v>
+        <v>1.76</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>8.02</v>
+        <v>0.8</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>33.02</v>
+        <v>3.3</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>12.33</v>
+        <v>1.23</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.22</v>
+        <v>0.52</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.69</v>
+        <v>0.77</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.74</v>
+        <v>0.87</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.06</v>
+        <v>0.91</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.56</v>
+        <v>0.26</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>11.16</v>
+        <v>1.12</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>114.01</v>
+        <v>11.4</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>22.41</v>
+        <v>2.24</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.36</v>
+        <v>0.74</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>14.71</v>
+        <v>1.47</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.61</v>
+        <v>0.76</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.59</v>
+        <v>0.16</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>15.72</v>
+        <v>1.57</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.5</v>
+        <v>0.65</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.98</v>
+        <v>0.6</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.99</v>
+        <v>0.7</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>30.18</v>
+        <v>3.02</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.02</v>
+        <v>0.4</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41576.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>11.24</v>
+        <v>1.12</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.98</v>
+        <v>0.8</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.15</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>24.31</v>
+        <v>2.43</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>19.7</v>
+        <v>1.97</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.85</v>
+        <v>0.88</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>34.41</v>
+        <v>3.44</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.61</v>
+        <v>1.36</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.89</v>
+        <v>0.59</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.68</v>
+        <v>0.87</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9.76</v>
+        <v>0.98</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.19</v>
+        <v>1.02</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.83</v>
+        <v>0.28</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>12.39</v>
+        <v>1.24</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.61</v>
+        <v>0.76</v>
       </c>
       <c r="R4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>12.66</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AD4" s="4" t="n">
         <v>1.01</v>
       </c>
-      <c r="S4" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>126.58</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>16.32</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>10.13</v>
-      </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>31.15</v>
+        <v>3.11</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.49</v>
+        <v>0.45</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>10.15</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41576.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.54</v>
+        <v>0.15</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.26</v>
+        <v>0.33</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.36</v>
+        <v>0.24</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.21</v>
+        <v>0.12</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>10.16</v>
+        <v>1.02</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.86</v>
+        <v>0.19</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.74</v>
+        <v>0.17</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>11.1</v>
+        <v>1.11</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.79</v>
+        <v>0.38</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.11</v>
+        <v>0.11</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.46</v>
+        <v>0.45</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.17</v>
+        <v>0.12</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>9.66</v>
+        <v>0.97</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.4</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41576.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>3.17</v>
+        <v>0.32</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>2.11</v>
+        <v>0.21</v>
       </c>
       <c r="D6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F6" s="4" t="n">
         <v>0.54</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>5.37</v>
-      </c>
       <c r="G6" s="4" t="n">
-        <v>2.49</v>
+        <v>0.25</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>10.01</v>
+        <v>1</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>3.84</v>
+        <v>0.38</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.57</v>
+        <v>0.16</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>2.27</v>
+        <v>0.23</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>2.76</v>
+        <v>0.28</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>2.84</v>
+        <v>0.28</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>2.48</v>
+        <v>0.25</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>3.4</v>
+        <v>0.34</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>2.27</v>
+        <v>0.23</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>30.4</v>
+        <v>3.04</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>6.87</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>2.29</v>
+        <v>0.23</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>4.39</v>
+        <v>0.44</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>2.32</v>
+        <v>0.23</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>4.55</v>
+        <v>0.46</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>2.02</v>
+        <v>0.2</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.9</v>
+        <v>0.19</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>2.21</v>
+        <v>0.22</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>2.83</v>
+        <v>0.28</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>1.21</v>
+        <v>0.12</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>2.86</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41576.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>20.85</v>
+        <v>2.09</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>15.44</v>
+        <v>1.54</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>1.05</v>
+        <v>0.11</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>45.32</v>
+        <v>4.53</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>37.22</v>
+        <v>3.72</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>16.41</v>
+        <v>1.64</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>57.92</v>
+        <v>5.79</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>25.25</v>
+        <v>2.52</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>11.23</v>
+        <v>1.12</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>16.68</v>
+        <v>1.67</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>18.2</v>
+        <v>1.82</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>19.19</v>
+        <v>1.92</v>
       </c>
       <c r="N7" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AF7" s="4" t="n">
         <v>5.24</v>
       </c>
-      <c r="O7" s="4" t="n">
-        <v>16.32</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>23.22</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>241.02</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>15.06</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>30.64</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>16.11</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>29.04</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>13.84</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>19.08</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>52.36</v>
-      </c>
       <c r="AG7" s="4" t="n">
-        <v>8.5</v>
+        <v>0.85</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>18.83</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41576.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>19.41</v>
+        <v>1.94</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>14.39</v>
+        <v>1.44</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>42.19</v>
+        <v>4.22</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>34.66</v>
+        <v>3.47</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>59.67</v>
+        <v>5.97</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>23.5</v>
+        <v>2.35</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>10.48</v>
+        <v>1.05</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>15.54</v>
+        <v>1.55</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>16.94</v>
+        <v>1.69</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>17.87</v>
+        <v>1.79</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>4.88</v>
+        <v>0.49</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>15.19</v>
+        <v>1.52</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>21.65</v>
+        <v>2.17</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>12.75</v>
+        <v>1.27</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.55</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>223.88</v>
+        <v>22.39</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>42.5</v>
+        <v>4.25</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>14.02</v>
+        <v>1.4</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>28.63</v>
+        <v>2.86</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>15.01</v>
+        <v>1.5</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.17</v>
+        <v>0.22</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>29.03</v>
+        <v>2.9</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>12.38</v>
+        <v>1.24</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>10.95</v>
+        <v>1.1</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>12.88</v>
+        <v>1.29</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>17.77</v>
+        <v>1.78</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>54.26</v>
+        <v>5.43</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>7.92</v>
+        <v>0.79</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>17.53</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41576.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>2.98</v>
+        <v>0.3</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>2.07</v>
+        <v>0.21</v>
       </c>
       <c r="D9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I9" s="4" t="n">
         <v>0.36</v>
       </c>
-      <c r="E9" s="4" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>16.06</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>3.61</v>
-      </c>
       <c r="J9" s="4" t="n">
-        <v>1.64</v>
+        <v>0.16</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>2.21</v>
+        <v>0.22</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>2.6</v>
+        <v>0.26</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>2.71</v>
+        <v>0.27</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>2.33</v>
+        <v>0.23</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>3.4</v>
+        <v>0.34</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>2.08</v>
+        <v>0.21</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AA9" s="4" t="n">
         <v>0.19</v>
       </c>
-      <c r="T9" s="4" t="n">
-        <v>28.25</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.9</v>
-      </c>
       <c r="AB9" s="4" t="n">
-        <v>1.75</v>
+        <v>0.18</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>2.04</v>
+        <v>0.2</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>2.7</v>
+        <v>0.27</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>15.12</v>
+        <v>1.51</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>2.7</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41576.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>16.43</v>
+        <v>1.64</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>12.19</v>
+        <v>1.22</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>35.72</v>
+        <v>3.57</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>29.36</v>
+        <v>2.94</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>12.93</v>
+        <v>1.29</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>46.6</v>
+        <v>4.66</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>19.89</v>
+        <v>1.99</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>8.85</v>
+        <v>0.89</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>13.16</v>
+        <v>1.32</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>14.35</v>
+        <v>1.43</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>15.14</v>
+        <v>1.51</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>4.13</v>
+        <v>0.41</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>12.86</v>
+        <v>1.29</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>18.3</v>
+        <v>1.83</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>10.78</v>
+        <v>1.08</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>188.37</v>
+        <v>18.84</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>35.82</v>
+        <v>3.58</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>11.87</v>
+        <v>1.19</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>24.14</v>
+        <v>2.41</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>12.7</v>
+        <v>1.27</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>22.99</v>
+        <v>2.3</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>10.48</v>
+        <v>1.05</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>9.27</v>
+        <v>0.93</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>10.9</v>
+        <v>1.09</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>15.05</v>
+        <v>1.51</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>41.95</v>
+        <v>4.2</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>6.71</v>
+        <v>0.67</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>14.84</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_144.xlsx
+++ b/DATA_goal/Junction_Flooding_144.xlsx
@@ -467,7 +467,7 @@
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
@@ -759,103 +759,103 @@
         <v>44825.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.58</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.01</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="T3" s="4" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG3" s="4" t="n">
         <v>0.36</v>
       </c>
-      <c r="U3" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF3" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AG3" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AH3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44825.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.99</v>
+        <v>9.94</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.46</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.16</v>
+        <v>21.62</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.8</v>
+        <v>17.96</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.37</v>
+        <v>23.71</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.2</v>
+        <v>11.99</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.57</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.8</v>
+        <v>7.96</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.3</v>
+        <v>3.05</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.76</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.11</v>
+        <v>11.15</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.22</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>11.25</v>
+        <v>112.51</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.14</v>
+        <v>21.44</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.14</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.49</v>
+        <v>14.89</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.62</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.06</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.23</v>
+        <v>12.28</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.79</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.81</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.11</v>
+        <v>21.06</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.14</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44825.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.72</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.79</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.81</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.09</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.39</v>
+        <v>13.87</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="J5" s="4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.23</v>
       </c>
-      <c r="K5" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>3.83</v>
+        <v>38.29</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.83</v>
+        <v>8.32</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.66</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.43</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.28</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.61</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.92</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.3</v>
+        <v>13</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.58</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_144.xlsx
+++ b/DATA_goal/Junction_Flooding_144.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,37 +444,37 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -759,103 +759,103 @@
         <v>44825.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.78</v>
+        <v>0.778</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.43</v>
+        <v>0.427</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.58</v>
+        <v>1.578</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.33</v>
+        <v>1.333</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.01</v>
+        <v>1.012</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.268</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.83</v>
+        <v>0.829</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.54</v>
+        <v>0.538</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.48</v>
+        <v>0.484</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.19</v>
+        <v>1.193</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.08</v>
+        <v>1.078</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.57</v>
+        <v>0.571</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.83</v>
+        <v>0.835</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.24</v>
+        <v>0.236</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.28</v>
+        <v>0.276</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.28</v>
+        <v>0.275</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.56</v>
+        <v>3.564</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.43</v>
+        <v>1.429</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.48</v>
+        <v>0.482</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.34</v>
+        <v>1.339</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.43</v>
+        <v>0.431</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.144</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.61</v>
+        <v>0.607</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.51</v>
+        <v>0.511</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.72</v>
+        <v>0.719</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.74</v>
+        <v>0.736</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.8</v>
+        <v>1.799</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.1</v>
+        <v>1.101</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.04</v>
+        <v>1.036</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.36</v>
+        <v>0.365</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.86</v>
+        <v>0.864</v>
       </c>
     </row>
     <row r="4">
@@ -863,100 +863,100 @@
         <v>44825.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.94</v>
+        <v>9.945</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.46</v>
+        <v>7.458</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.59</v>
+        <v>0.587</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>21.62</v>
+        <v>21.625</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>17.96</v>
+        <v>17.956</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>8.051</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>23.71</v>
+        <v>23.711</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>11.99</v>
+        <v>11.989</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.57</v>
+        <v>5.569</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.96</v>
+        <v>7.964</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>8.606</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>9.529999999999999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.05</v>
+        <v>3.048</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.76</v>
+        <v>7.756</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.15</v>
+        <v>11.146</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.22</v>
+        <v>6.223</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.31</v>
+        <v>0.315</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.47</v>
+        <v>0.472</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>112.51</v>
+        <v>112.511</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>21.44</v>
+        <v>21.442</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.14</v>
+        <v>7.138</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>14.89</v>
+        <v>14.889</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.62</v>
+        <v>7.621</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.06</v>
+        <v>1.057</v>
       </c>
       <c r="Z4" s="4" t="n">
         <v>12.28</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.39</v>
+        <v>6.393</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.79</v>
+        <v>5.794</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.73</v>
+        <v>6.734</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>9.81</v>
+        <v>9.805999999999999</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.7</v>
+        <v>0.705</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>21.06</v>
+        <v>21.063</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.14</v>
+        <v>4.145</v>
       </c>
       <c r="AH4" s="4" t="n">
         <v>9.109999999999999</v>
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>3.47</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44825.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>12.87</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>28.02</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>23.27</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>36.28</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>15.57</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>14.46</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>147.01</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>28.03</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.27</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>19.25</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>32.75</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>11.71</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_144.xlsx
+++ b/DATA_goal/Junction_Flooding_144.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,28 +967,28 @@
         <v>44825.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.72</v>
+        <v>3.725</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.79</v>
+        <v>2.788</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.31</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>8.119999999999999</v>
+        <v>8.121</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.81</v>
+        <v>6.806</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.09</v>
+        <v>3.088</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>13.87</v>
+        <v>13.866</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.48</v>
+        <v>4.483</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>2.26</v>
@@ -997,73 +997,177 @@
         <v>2.93</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.19</v>
+        <v>3.192</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.71</v>
+        <v>3.711</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.35</v>
+        <v>1.346</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.89</v>
+        <v>2.894</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.31</v>
+        <v>4.315</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.23</v>
+        <v>2.231</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.23</v>
+        <v>0.227</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.25</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>38.29</v>
+        <v>38.292</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>8.32</v>
+        <v>8.318</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.66</v>
+        <v>2.659</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>6</v>
+        <v>5.997</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.87</v>
+        <v>2.872</v>
       </c>
       <c r="Y5" s="4" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>6.727</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>2.428</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>2.277</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>2.609</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>3.916</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.519</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>13.004</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>1.577</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>3.473</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44825.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>12.87</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>28.02</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>23.27</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>36.28</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>147.01</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>28.03</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="AE6" s="4" t="n">
         <v>0.41</v>
       </c>
-      <c r="Z5" s="4" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>3.47</v>
+      <c r="AF6" s="4" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>11.71</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_144.xlsx
+++ b/DATA_goal/Junction_Flooding_144.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,28 +967,28 @@
         <v>44825.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.725</v>
+        <v>3.72</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.788</v>
+        <v>2.79</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.31</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>8.121</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.806</v>
+        <v>6.81</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.088</v>
+        <v>3.09</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>13.866</v>
+        <v>13.87</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.483</v>
+        <v>4.48</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>2.26</v>
@@ -997,177 +997,73 @@
         <v>2.93</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.192</v>
+        <v>3.19</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.711</v>
+        <v>3.71</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.346</v>
+        <v>1.35</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.894</v>
+        <v>2.89</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.315</v>
+        <v>4.31</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.231</v>
+        <v>2.23</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.227</v>
+        <v>0.23</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.25</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>38.292</v>
+        <v>38.29</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>8.318</v>
+        <v>8.32</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.659</v>
+        <v>2.66</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>5.997</v>
+        <v>6</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.872</v>
+        <v>2.87</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.407</v>
+        <v>0.41</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>6.727</v>
+        <v>6.73</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.428</v>
+        <v>2.43</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.277</v>
+        <v>2.28</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.609</v>
+        <v>2.61</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.916</v>
+        <v>3.92</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.519</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>13.004</v>
+        <v>13</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.577</v>
+        <v>1.58</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.473</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44825.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>12.87</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>28.02</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>23.27</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>36.28</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>15.57</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>14.46</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>147.01</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>28.03</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.27</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>19.25</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>32.75</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>11.71</v>
+        <v>3.47</v>
       </c>
     </row>
   </sheetData>
